--- a/data/сценарка.xlsx
+++ b/data/сценарка.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abuzuverov\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\abuzuverov\krit_task\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06C368D-A53B-4320-B86C-6DC9AE1AF7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CCFE34-2644-4ABE-B2FA-BB70DF31F6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5EA0319F-D9D8-41D3-8778-F063C7AA763D}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{5EA0319F-D9D8-41D3-8778-F063C7AA763D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -113,8 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,16 +435,16 @@
   <dimension ref="A1:AR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J10" sqref="C10:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -575,7 +578,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -658,7 +661,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.75">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -717,7 +720,7 @@
         <v>102.87512438109343</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -797,7 +800,7 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -856,7 +859,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -939,7 +942,7 @@
         <v>103.08164024609432</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.75">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -1140,13 +1143,16 @@
         <v>102.6972</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="1"/>
       <c r="K10">
         <v>30.6892</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>63.920850770076392</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.75">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>96.717793332508563</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>104.337</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.75">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1400,7 +1406,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>102.9</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -1542,19 +1548,26 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="H16">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
         <v>28.307499999999976</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>24.411666666666651</v>
       </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16">
         <v>38.297499999999978</v>
       </c>
@@ -1604,7 +1617,7 @@
         <v>63.375</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -1666,7 +1679,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1674,7 +1687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.75">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -1735,5 +1748,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>